--- a/Data/Processes/proTruckInsurance.xlsx
+++ b/Data/Processes/proTruckInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A160AC-3F5C-4985-ABF4-C437EC0AD425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AFBEDC-20CA-4EA4-8070-9F8EFA0B23DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="960" windowWidth="35280" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="1824" yWindow="864" windowWidth="39096" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,19 @@
     <t>dlgTruckInsurance</t>
   </si>
   <si>
-    <t>103_TruckInsuranceAutomobile_001_SmokeTest</t>
-  </si>
-  <si>
-    <t>103_TruckInsuranceAutomobile_001_SmokeTest_FillPageVehicleData</t>
-  </si>
-  <si>
-    <t>103_TruckInsuranceAutomobile_001_SmokeTest_FillPageInsurantData</t>
-  </si>
-  <si>
-    <t>103_TruckInsuranceAutomobile_001_SmokeTest_FillPageProductData</t>
-  </si>
-  <si>
-    <t>103_TruckInsuranceAutomobile_001_SmokeTest_FillPageSendQuote</t>
+    <t>103_TruckInsurance_001_SmokeTest</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest_FillPageVehicleData</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest_FillPageInsurantData</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest_FillPageProductData</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_001_SmokeTest_FillPageSendQuote</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Processes/proTruckInsurance.xlsx
+++ b/Data/Processes/proTruckInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AFBEDC-20CA-4EA4-8070-9F8EFA0B23DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F050F68-E36A-41EB-9293-705EFB8D646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1824" yWindow="864" windowWidth="39096" windowHeight="15720" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="960" yWindow="1260" windowWidth="36948" windowHeight="15672" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -52,6 +52,39 @@
   </si>
   <si>
     <t>103_TruckInsurance_001_SmokeTest_FillPageSendQuote</t>
+  </si>
+  <si>
+    <t>Vehicle Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>Vehicle Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint list value ranges</t>
+  </si>
+  <si>
+    <t>Vehicle Page check error hint manufacturing date in the future</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_001_MandatoryFields_FillMake</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_EnterNumericValuesBelowRange</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_001_MandatoryFields_CheckFilledMake</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_EnterNumericValuesAboveRange</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_002_VehicleData_002_ManufacturingDateInTheFuture</t>
   </si>
 </sst>
 </file>
@@ -404,24 +437,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.6640625" customWidth="1"/>
     <col min="2" max="2" width="60.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +478,14 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -465,6 +506,46 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Processes/proTruckInsurance.xlsx
+++ b/Data/Processes/proTruckInsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F050F68-E36A-41EB-9293-705EFB8D646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0132275-65B6-48B1-BAF1-88D2E6D7C297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1260" windowWidth="36948" windowHeight="15672" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="276" yWindow="2796" windowWidth="39612" windowHeight="13668" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -85,6 +85,42 @@
   </si>
   <si>
     <t>103_TruckInsurance_002_VehicleData_002_ManufacturingDateInTheFuture</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_001_MandatoryFields</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_002_FieldHintsAndErrors</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_001_MandatoryFields_FillFirstName</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_001_MandatoryFields_CheckFilledFirstName</t>
+  </si>
+  <si>
+    <t>Button Next from Page VehicleData</t>
+  </si>
+  <si>
+    <t>Insurant Data Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>Insurant Data Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_002_EnterValuesInWrongFormat</t>
+  </si>
+  <si>
+    <t>Insurant Data Page check error hint formatting</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_002_EnterValuesInWrongFormat Part 2</t>
+  </si>
+  <si>
+    <t>Insurant Data Page check error hint formatting Part 2</t>
+  </si>
+  <si>
+    <t>103_TruckInsurance_003_InsurantData_003_ListContents</t>
   </si>
 </sst>
 </file>
@@ -437,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,10 +484,9 @@
     <col min="1" max="1" width="74.6640625" customWidth="1"/>
     <col min="2" max="2" width="60.6640625" customWidth="1"/>
     <col min="3" max="3" width="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="71.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -548,6 +583,57 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
